--- a/SCRUM/Backlog.xlsx
+++ b/SCRUM/Backlog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t xml:space="preserve">Desarrollo ágil: Historias de usuario y criterios de aceptación</t>
   </si>
@@ -108,6 +108,30 @@
     <t xml:space="preserve">el sistema le permitirá darse de alta en la pagina web </t>
   </si>
   <si>
+    <t xml:space="preserve">MARC-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como un Administrador de la web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necesito tener los permisos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con la finalidad de  poder tener bajo control los servicios de la web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleccion de productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso que el precio del producto sea demasiado caro para la calidad de la zapatilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando algun administrador valore el producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el sistema le permitirá hacer cambios en el precio del producto, llegando a un acuerdo con el usuario vendedor</t>
+  </si>
+  <si>
     <t xml:space="preserve">[Titulo del escenario]</t>
   </si>
   <si>
@@ -120,28 +144,61 @@
     <t xml:space="preserve">el sistema [Resultado / Comportamiento]</t>
   </si>
   <si>
-    <t xml:space="preserve">MARC-002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como un Administrador de la web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesito tener los permisos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con la finalidad de  poder tener bajo control los servicios de la web</t>
-  </si>
-  <si>
     <t xml:space="preserve">MARC-003</t>
   </si>
   <si>
-    <t xml:space="preserve">Como un [Rol]</t>
+    <t xml:space="preserve">Necesito poder acceder a todas las funcionalidades de la web</t>
   </si>
   <si>
-    <t xml:space="preserve">Necesito [Descripción de la Funcionalidad]</t>
+    <t xml:space="preserve">Con la finalidad de  descubrir todos los servicios que me presenta la web</t>
   </si>
   <si>
-    <t xml:space="preserve">Con la finalidad de  [Descripción razón o resultado]</t>
+    <t xml:space="preserve">Acceso a apartado “Tienda”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso que el usuario quiera ver las zapatillas a la venta y quiera acceder individualmente a alguna de ellas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando acceda al apartado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el sistema le permitirá ver las sneakers disonibles en nuestra pagina y acceder a la información de la zapatilla que quiera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceso a apartado “Subir producto”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso que el usuario quiera subir una zapatilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando rellene el formulario de Subir Producto y pulse el boton Enviar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el sistema enviará la información a la base de datos y el producto se subirá al apartado “Tienda”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceso a apartado “Sobre nosotros”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso que el usuario quiera conocer más sobre nosotros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando pulse el apartado “Sobre nosotros”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el sistema le mostrará información sobre nosotros, para que nos puedan conocer un poco más</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceso a apartado “Contacto”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso que el usuario quiera contactar con nuestro equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando rellene el formulario de Contacto y pulse el boton Enviar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el sistema enviará la información de contacto a la empresa</t>
   </si>
   <si>
     <t xml:space="preserve">Nota:</t>
@@ -532,11 +589,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.71"/>
@@ -850,18 +907,10 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -910,33 +959,35 @@
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -961,16 +1012,16 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="1"/>
@@ -997,16 +1048,16 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="1"/>
@@ -1033,16 +1084,16 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="1"/>
@@ -1092,33 +1143,35 @@
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1135,7 +1188,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1143,18 +1196,20 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1171,7 +1226,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1179,18 +1234,20 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1207,7 +1264,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1215,18 +1272,20 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="K19" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1302,7 +1361,7 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1332,7 +1391,7 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1362,7 +1421,7 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -7806,7 +7865,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.71"/>
@@ -7819,7 +7878,7 @@
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="11" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -7849,7 +7908,7 @@
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7907,10 +7966,10 @@
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -7939,10 +7998,10 @@
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -7974,7 +8033,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -8006,7 +8065,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -8038,7 +8097,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -8067,10 +8126,10 @@
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -8102,7 +8161,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -8134,7 +8193,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -8166,7 +8225,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -8198,7 +8257,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -14822,7 +14881,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.86"/>
@@ -14840,7 +14899,7 @@
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -14870,7 +14929,7 @@
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -14972,7 +15031,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>9</v>
@@ -15006,31 +15065,31 @@
     <row r="6" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -15059,16 +15118,16 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -15097,16 +15156,16 @@
         <v>3</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
